--- a/evaluation/RQ2/maian.xlsx
+++ b/evaluation/RQ2/maian.xlsx
@@ -3634,7 +3634,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
